--- a/Documents/Finance/Timesheets/Max Holland/timesheet_MH_03_02_14.xlsx
+++ b/Documents/Finance/Timesheets/Max Holland/timesheet_MH_03_02_14.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -254,6 +254,9 @@
       <t>9/2</t>
     </r>
   </si>
+  <si>
+    <t>P.S</t>
+  </si>
 </sst>
 </file>
 
@@ -266,16 +269,11 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;&quot;$&quot;\(#,##0.00\)"/>
     <numFmt numFmtId="168" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
     </font>
     <font>
       <sz val="10"/>
@@ -950,148 +948,148 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="15" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="23" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="36" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="35" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="44" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="43" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="45" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="44" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="48" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="47" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,7 +1424,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1438,17 +1436,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
@@ -1464,13 +1462,13 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1478,14 +1476,14 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="41" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="42" t="s">
         <v>36</v>
       </c>
@@ -1494,10 +1492,10 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="25"/>
@@ -1506,16 +1504,16 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="42" t="s">
         <v>35</v>
       </c>
@@ -1524,12 +1522,12 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="25"/>
@@ -1538,20 +1536,20 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="44">
         <v>41673</v>
       </c>
-      <c r="H8" s="45"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="31" t="s">
         <v>8</v>
       </c>
@@ -1600,7 +1598,7 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="13">
@@ -1619,7 +1617,7 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="13"/>
@@ -1636,7 +1634,7 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="13">
@@ -1655,7 +1653,7 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="13">
@@ -1674,7 +1672,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="13">
@@ -1693,7 +1691,7 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="13"/>
@@ -1710,7 +1708,7 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="13"/>
@@ -1845,11 +1843,11 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="3">
         <f>I18</f>
         <v>10</v>
@@ -1862,11 +1860,11 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="3">
         <f>I20</f>
         <v>125</v>
@@ -1907,15 +1905,15 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="46" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="47"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1923,10 +1921,14 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="42"/>
+      <c r="A27" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="50"/>
+      <c r="D27" s="45">
+        <v>41698</v>
+      </c>
       <c r="E27" s="43"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -1935,15 +1937,15 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="46" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="47"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1963,19 +1965,34 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A30:C30"/>
@@ -1986,21 +2003,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2026,17 +2028,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
@@ -2065,13 +2067,13 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -2079,26 +2081,26 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="41" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="53"/>
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="25"/>
@@ -2107,28 +2109,28 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="41" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="53"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="25"/>
@@ -2137,16 +2139,16 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="44">
         <v>39727</v>
       </c>
@@ -2585,11 +2587,11 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="3">
         <f>I27</f>
         <v>8.43</v>
@@ -2602,11 +2604,11 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="3">
         <f>I29</f>
         <v>129.88999999999999</v>
@@ -2643,15 +2645,15 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="46" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="47"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2671,15 +2673,15 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="47"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2699,25 +2701,40 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="48" t="str">
+      <c r="A39" s="40" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/excel-timesheet.html","Employee Timesheet Template")</f>
         <v>Employee Timesheet Template</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="49" t="str">
+      <c r="G39" s="41" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/","Templates by Vertex42.com")</f>
         <v>Templates by Vertex42.com</v>
       </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="A39:C39"/>
@@ -2728,21 +2745,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
